--- a/AML/AML/WebContent/WEB-INF/classes/TransactionVolumeByBranch.xlsx
+++ b/AML/AML/WebContent/WEB-INF/classes/TransactionVolumeByBranch.xlsx
@@ -37,6 +37,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="#,##0_ "/>
+    <numFmt numFmtId="177" formatCode="#,##0.000_ "/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -97,9 +101,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -406,17 +413,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.625" customWidth="1"/>
     <col min="2" max="2" width="12.625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="20" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -429,10 +434,10 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
